--- a/Xtrim_ERP/doc/ตารางข้อมูลโปรแกรม (8).xlsx
+++ b/Xtrim_ERP/doc/ตารางข้อมูลโปรแกรม (8).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-255" windowWidth="23250" windowHeight="12525" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="900" yWindow="-255" windowWidth="23250" windowHeight="12525" tabRatio="684" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="DEM+DET+REN" sheetId="1" r:id="rId1"/>
@@ -2041,6 +2041,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2074,27 +2077,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2108,6 +2090,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6622,8 +6622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6853,46 +6853,46 @@
       <c r="C37" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="D37" s="110" t="s">
+      <c r="D37" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110" t="s">
+      <c r="E37" s="114"/>
+      <c r="F37" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110" t="s">
+      <c r="G37" s="114"/>
+      <c r="H37" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110" t="s">
+      <c r="I37" s="114"/>
+      <c r="J37" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="K37" s="110"/>
-      <c r="L37" s="110" t="s">
+      <c r="K37" s="114"/>
+      <c r="L37" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="M37" s="110"/>
+      <c r="M37" s="114"/>
       <c r="N37" s="94" t="s">
         <v>112</v>
       </c>
       <c r="O37" s="95"/>
-      <c r="P37" s="110" t="s">
+      <c r="P37" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="Q37" s="110"/>
-      <c r="R37" s="110" t="s">
+      <c r="Q37" s="114"/>
+      <c r="R37" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="S37" s="110"/>
-      <c r="T37" s="110" t="s">
+      <c r="S37" s="114"/>
+      <c r="T37" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="U37" s="110"/>
-      <c r="V37" s="110" t="s">
+      <c r="U37" s="114"/>
+      <c r="V37" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="W37" s="110"/>
+      <c r="W37" s="114"/>
     </row>
     <row r="38" spans="2:23">
       <c r="C38" s="28">
@@ -6914,30 +6914,30 @@
         <v>199</v>
       </c>
       <c r="K38" s="33"/>
-      <c r="L38" s="107">
+      <c r="L38" s="113">
         <v>2600</v>
       </c>
-      <c r="M38" s="107"/>
-      <c r="N38" s="107">
+      <c r="M38" s="113"/>
+      <c r="N38" s="113">
         <v>7800</v>
       </c>
-      <c r="O38" s="107"/>
-      <c r="P38" s="107">
+      <c r="O38" s="113"/>
+      <c r="P38" s="113">
         <v>78</v>
       </c>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107">
+      <c r="Q38" s="113"/>
+      <c r="R38" s="113">
         <v>234</v>
       </c>
-      <c r="S38" s="107"/>
-      <c r="T38" s="107">
+      <c r="S38" s="113"/>
+      <c r="T38" s="113">
         <v>546</v>
       </c>
-      <c r="U38" s="107"/>
-      <c r="V38" s="107">
+      <c r="U38" s="113"/>
+      <c r="V38" s="113">
         <v>8034</v>
       </c>
-      <c r="W38" s="108"/>
+      <c r="W38" s="115"/>
     </row>
     <row r="39" spans="2:23">
       <c r="C39" s="28">
@@ -7087,64 +7087,64 @@
       <c r="M46" t="s">
         <v>198</v>
       </c>
-      <c r="V46" s="113">
+      <c r="V46" s="107">
         <v>7800</v>
       </c>
-      <c r="W46" s="113"/>
+      <c r="W46" s="107"/>
     </row>
     <row r="47" spans="2:23">
       <c r="M47" t="s">
         <v>197</v>
       </c>
-      <c r="V47" s="113">
+      <c r="V47" s="107">
         <v>78</v>
       </c>
-      <c r="W47" s="113"/>
+      <c r="W47" s="107"/>
     </row>
     <row r="48" spans="2:23">
       <c r="M48" t="s">
         <v>196</v>
       </c>
-      <c r="V48" s="113">
+      <c r="V48" s="107">
         <v>8346</v>
       </c>
-      <c r="W48" s="113"/>
+      <c r="W48" s="107"/>
     </row>
     <row r="49" spans="3:23">
       <c r="M49" t="s">
         <v>195</v>
       </c>
-      <c r="V49" s="113">
+      <c r="V49" s="107">
         <v>78</v>
       </c>
-      <c r="W49" s="113"/>
+      <c r="W49" s="107"/>
     </row>
     <row r="50" spans="3:23">
       <c r="M50" t="s">
         <v>194</v>
       </c>
-      <c r="V50" s="113">
+      <c r="V50" s="107">
         <v>234</v>
       </c>
-      <c r="W50" s="113"/>
+      <c r="W50" s="107"/>
     </row>
     <row r="51" spans="3:23">
       <c r="M51" t="s">
         <v>193</v>
       </c>
-      <c r="V51" s="113">
+      <c r="V51" s="107">
         <v>312</v>
       </c>
-      <c r="W51" s="113"/>
+      <c r="W51" s="107"/>
     </row>
     <row r="52" spans="3:23">
       <c r="M52" t="s">
         <v>192</v>
       </c>
-      <c r="V52" s="113">
+      <c r="V52" s="107">
         <v>8034</v>
       </c>
-      <c r="W52" s="113"/>
+      <c r="W52" s="107"/>
     </row>
     <row r="56" spans="3:23">
       <c r="C56" s="26" t="s">
@@ -7359,6 +7359,793 @@
     <row r="69" spans="3:5">
       <c r="C69" s="4"/>
       <c r="E69" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="V51:W51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:W72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="D10" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="C12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" t="s">
+        <v>236</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="27"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="C13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" t="s">
+        <v>234</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="29"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="C14" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="29"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="C15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" t="s">
+        <v>230</v>
+      </c>
+      <c r="K15" s="28"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="29"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="C16" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="29"/>
+    </row>
+    <row r="17" spans="3:16">
+      <c r="C17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="29"/>
+    </row>
+    <row r="18" spans="3:16">
+      <c r="K18" s="1"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="20" spans="3:16">
+      <c r="C20" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16">
+      <c r="D21" s="89" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16">
+      <c r="D22" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16">
+      <c r="D23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16">
+      <c r="C25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16">
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16">
+      <c r="D27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16">
+      <c r="D28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16">
+      <c r="D29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16">
+      <c r="C31" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16">
+      <c r="C32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23">
+      <c r="C33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23">
+      <c r="B36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23">
+      <c r="C37" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="M37" s="114"/>
+      <c r="N37" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="O37" s="95"/>
+      <c r="P37" s="114" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="S37" s="114"/>
+      <c r="T37" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="U37" s="114"/>
+      <c r="V37" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="W37" s="95"/>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="C38" s="28">
+        <v>1</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33">
+        <v>3</v>
+      </c>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="K38" s="33"/>
+      <c r="L38" s="113">
+        <v>2600</v>
+      </c>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113">
+        <v>7800</v>
+      </c>
+      <c r="O38" s="113"/>
+      <c r="P38" s="113">
+        <v>78</v>
+      </c>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="113">
+        <v>234</v>
+      </c>
+      <c r="S38" s="113"/>
+      <c r="T38" s="113">
+        <v>546</v>
+      </c>
+      <c r="U38" s="113"/>
+      <c r="V38" s="113">
+        <v>8034</v>
+      </c>
+      <c r="W38" s="115"/>
+    </row>
+    <row r="39" spans="2:23">
+      <c r="C39" s="28">
+        <v>2</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="29"/>
+    </row>
+    <row r="40" spans="2:23">
+      <c r="C40" s="28">
+        <v>3</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="29"/>
+    </row>
+    <row r="41" spans="2:23">
+      <c r="C41" s="28">
+        <v>4</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="29"/>
+    </row>
+    <row r="42" spans="2:23">
+      <c r="C42" s="28"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="29"/>
+    </row>
+    <row r="43" spans="2:23">
+      <c r="C43" s="28"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="29"/>
+    </row>
+    <row r="44" spans="2:23">
+      <c r="C44" s="1"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="2"/>
+    </row>
+    <row r="46" spans="2:23">
+      <c r="M46" t="s">
+        <v>198</v>
+      </c>
+      <c r="V46" s="107">
+        <v>7800</v>
+      </c>
+      <c r="W46" s="107"/>
+    </row>
+    <row r="47" spans="2:23">
+      <c r="M47" t="s">
+        <v>197</v>
+      </c>
+      <c r="V47" s="107">
+        <v>78</v>
+      </c>
+      <c r="W47" s="107"/>
+    </row>
+    <row r="48" spans="2:23">
+      <c r="M48" t="s">
+        <v>196</v>
+      </c>
+      <c r="V48" s="107">
+        <v>8346</v>
+      </c>
+      <c r="W48" s="107"/>
+    </row>
+    <row r="49" spans="3:23">
+      <c r="M49" t="s">
+        <v>195</v>
+      </c>
+      <c r="V49" s="107">
+        <v>78</v>
+      </c>
+      <c r="W49" s="107"/>
+    </row>
+    <row r="50" spans="3:23">
+      <c r="M50" t="s">
+        <v>194</v>
+      </c>
+      <c r="V50" s="107">
+        <v>234</v>
+      </c>
+      <c r="W50" s="107"/>
+    </row>
+    <row r="51" spans="3:23">
+      <c r="M51" t="s">
+        <v>193</v>
+      </c>
+      <c r="V51" s="107">
+        <v>312</v>
+      </c>
+      <c r="W51" s="107"/>
+    </row>
+    <row r="52" spans="3:23">
+      <c r="M52" t="s">
+        <v>192</v>
+      </c>
+      <c r="V52" s="107">
+        <v>8034</v>
+      </c>
+      <c r="W52" s="107"/>
+    </row>
+    <row r="56" spans="3:23">
+      <c r="C56" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="27"/>
+    </row>
+    <row r="57" spans="3:23">
+      <c r="C57" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="29"/>
+    </row>
+    <row r="58" spans="3:23">
+      <c r="C58" s="28"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="29"/>
+    </row>
+    <row r="59" spans="3:23">
+      <c r="C59" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="29"/>
+    </row>
+    <row r="60" spans="3:23">
+      <c r="C60" s="28"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="29"/>
+    </row>
+    <row r="61" spans="3:23">
+      <c r="C61" s="28"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="29"/>
+    </row>
+    <row r="62" spans="3:23">
+      <c r="C62" s="28"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="29"/>
+    </row>
+    <row r="63" spans="3:23">
+      <c r="C63" s="1"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="34"/>
+      <c r="W63" s="2"/>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="C66" s="16"/>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="C67" s="17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="C68" s="4"/>
+    </row>
+    <row r="70" spans="3:5">
+      <c r="C70" s="16"/>
+      <c r="E70" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="E71" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5">
+      <c r="C72" s="4"/>
+      <c r="E72" t="s">
         <v>474</v>
       </c>
     </row>
@@ -7394,793 +8181,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:W72"/>
-  <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="B9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="D10" s="25" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="C12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" t="s">
-        <v>236</v>
-      </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="27"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="C13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" t="s">
-        <v>234</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="29"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="C14" t="s">
-        <v>233</v>
-      </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="29"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="C15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" t="s">
-        <v>230</v>
-      </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="29"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="C16" t="s">
-        <v>229</v>
-      </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="29"/>
-    </row>
-    <row r="17" spans="3:16">
-      <c r="C17" t="s">
-        <v>328</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="29"/>
-    </row>
-    <row r="18" spans="3:16">
-      <c r="K18" s="1"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="20" spans="3:16">
-      <c r="C20" s="89" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16">
-      <c r="D21" s="89" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16">
-      <c r="D22" t="s">
-        <v>225</v>
-      </c>
-      <c r="F22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16">
-      <c r="D23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16">
-      <c r="C25" t="s">
-        <v>464</v>
-      </c>
-      <c r="D25" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16">
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16">
-      <c r="D27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16">
-      <c r="D28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="3:16">
-      <c r="D29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="3:16">
-      <c r="C31" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16">
-      <c r="C32" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23">
-      <c r="C33" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23">
-      <c r="B36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23">
-      <c r="C37" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="D37" s="110" t="s">
-        <v>208</v>
-      </c>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110" t="s">
-        <v>207</v>
-      </c>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110" t="s">
-        <v>206</v>
-      </c>
-      <c r="K37" s="110"/>
-      <c r="L37" s="110" t="s">
-        <v>205</v>
-      </c>
-      <c r="M37" s="110"/>
-      <c r="N37" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="O37" s="95"/>
-      <c r="P37" s="110" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="110" t="s">
-        <v>203</v>
-      </c>
-      <c r="S37" s="110"/>
-      <c r="T37" s="110" t="s">
-        <v>197</v>
-      </c>
-      <c r="U37" s="110"/>
-      <c r="V37" s="94" t="s">
-        <v>202</v>
-      </c>
-      <c r="W37" s="95"/>
-    </row>
-    <row r="38" spans="2:23">
-      <c r="C38" s="28">
-        <v>1</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33">
-        <v>3</v>
-      </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="K38" s="33"/>
-      <c r="L38" s="107">
-        <v>2600</v>
-      </c>
-      <c r="M38" s="107"/>
-      <c r="N38" s="107">
-        <v>7800</v>
-      </c>
-      <c r="O38" s="107"/>
-      <c r="P38" s="107">
-        <v>78</v>
-      </c>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107">
-        <v>234</v>
-      </c>
-      <c r="S38" s="107"/>
-      <c r="T38" s="107">
-        <v>546</v>
-      </c>
-      <c r="U38" s="107"/>
-      <c r="V38" s="107">
-        <v>8034</v>
-      </c>
-      <c r="W38" s="108"/>
-    </row>
-    <row r="39" spans="2:23">
-      <c r="C39" s="28">
-        <v>2</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="29"/>
-    </row>
-    <row r="40" spans="2:23">
-      <c r="C40" s="28">
-        <v>3</v>
-      </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="29"/>
-    </row>
-    <row r="41" spans="2:23">
-      <c r="C41" s="28">
-        <v>4</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="29"/>
-    </row>
-    <row r="42" spans="2:23">
-      <c r="C42" s="28"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="29"/>
-    </row>
-    <row r="43" spans="2:23">
-      <c r="C43" s="28"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="29"/>
-    </row>
-    <row r="44" spans="2:23">
-      <c r="C44" s="1"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="2"/>
-    </row>
-    <row r="46" spans="2:23">
-      <c r="M46" t="s">
-        <v>198</v>
-      </c>
-      <c r="V46" s="113">
-        <v>7800</v>
-      </c>
-      <c r="W46" s="113"/>
-    </row>
-    <row r="47" spans="2:23">
-      <c r="M47" t="s">
-        <v>197</v>
-      </c>
-      <c r="V47" s="113">
-        <v>78</v>
-      </c>
-      <c r="W47" s="113"/>
-    </row>
-    <row r="48" spans="2:23">
-      <c r="M48" t="s">
-        <v>196</v>
-      </c>
-      <c r="V48" s="113">
-        <v>8346</v>
-      </c>
-      <c r="W48" s="113"/>
-    </row>
-    <row r="49" spans="3:23">
-      <c r="M49" t="s">
-        <v>195</v>
-      </c>
-      <c r="V49" s="113">
-        <v>78</v>
-      </c>
-      <c r="W49" s="113"/>
-    </row>
-    <row r="50" spans="3:23">
-      <c r="M50" t="s">
-        <v>194</v>
-      </c>
-      <c r="V50" s="113">
-        <v>234</v>
-      </c>
-      <c r="W50" s="113"/>
-    </row>
-    <row r="51" spans="3:23">
-      <c r="M51" t="s">
-        <v>193</v>
-      </c>
-      <c r="V51" s="113">
-        <v>312</v>
-      </c>
-      <c r="W51" s="113"/>
-    </row>
-    <row r="52" spans="3:23">
-      <c r="M52" t="s">
-        <v>192</v>
-      </c>
-      <c r="V52" s="113">
-        <v>8034</v>
-      </c>
-      <c r="W52" s="113"/>
-    </row>
-    <row r="56" spans="3:23">
-      <c r="C56" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
-      <c r="V56" s="32"/>
-      <c r="W56" s="27"/>
-    </row>
-    <row r="57" spans="3:23">
-      <c r="C57" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="33"/>
-      <c r="W57" s="29"/>
-    </row>
-    <row r="58" spans="3:23">
-      <c r="C58" s="28"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="33"/>
-      <c r="W58" s="29"/>
-    </row>
-    <row r="59" spans="3:23">
-      <c r="C59" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="29"/>
-    </row>
-    <row r="60" spans="3:23">
-      <c r="C60" s="28"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="33"/>
-      <c r="W60" s="29"/>
-    </row>
-    <row r="61" spans="3:23">
-      <c r="C61" s="28"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="33"/>
-      <c r="W61" s="29"/>
-    </row>
-    <row r="62" spans="3:23">
-      <c r="C62" s="28"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="33"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="33"/>
-      <c r="W62" s="29"/>
-    </row>
-    <row r="63" spans="3:23">
-      <c r="C63" s="1"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="2"/>
-    </row>
-    <row r="66" spans="3:5">
-      <c r="C66" s="16"/>
-    </row>
-    <row r="67" spans="3:5">
-      <c r="C67" s="17" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5">
-      <c r="C68" s="4"/>
-    </row>
-    <row r="70" spans="3:5">
-      <c r="C70" s="16"/>
-      <c r="E70" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5">
-      <c r="C71" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="E71" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5">
-      <c r="C72" s="4"/>
-      <c r="E72" t="s">
-        <v>474</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="V51:W51"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H9"/>
@@ -8197,18 +8197,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="101" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="102" t="s">
         <v>288</v>
       </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="101" t="s">
+      <c r="E3" s="104"/>
+      <c r="F3" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="103"/>
+      <c r="G3" s="104"/>
       <c r="H3" s="55" t="s">
         <v>151</v>
       </c>
@@ -8782,11 +8782,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="108" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
     </row>
     <row r="5" spans="2:14">
       <c r="D5" s="25" t="s">
@@ -9157,25 +9157,25 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="78"/>
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117" t="s">
+      <c r="C32" s="111"/>
+      <c r="D32" s="111" t="s">
         <v>387</v>
       </c>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117" t="s">
+      <c r="E32" s="111"/>
+      <c r="F32" s="111" t="s">
         <v>392</v>
       </c>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117" t="s">
+      <c r="G32" s="111"/>
+      <c r="H32" s="111" t="s">
         <v>396</v>
       </c>
-      <c r="I32" s="117"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="117"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
       <c r="M32" s="33">
         <v>20</v>
       </c>
@@ -9207,25 +9207,25 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="78"/>
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="98" t="s">
         <v>412</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117" t="s">
+      <c r="C33" s="111"/>
+      <c r="D33" s="111" t="s">
         <v>387</v>
       </c>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117" t="s">
+      <c r="E33" s="111"/>
+      <c r="F33" s="111" t="s">
         <v>391</v>
       </c>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117" t="s">
+      <c r="G33" s="111"/>
+      <c r="H33" s="111" t="s">
         <v>396</v>
       </c>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
       <c r="M33" s="33">
         <v>1</v>
       </c>
@@ -9259,25 +9259,25 @@
       <c r="A34" s="79" t="s">
         <v>409</v>
       </c>
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="98" t="s">
         <v>413</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117" t="s">
+      <c r="C34" s="111"/>
+      <c r="D34" s="111" t="s">
         <v>387</v>
       </c>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117" t="s">
+      <c r="E34" s="111"/>
+      <c r="F34" s="111" t="s">
         <v>391</v>
       </c>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117" t="s">
+      <c r="G34" s="111"/>
+      <c r="H34" s="111" t="s">
         <v>396</v>
       </c>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
       <c r="M34" s="33">
         <v>5</v>
       </c>
@@ -9455,6 +9455,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="H30:L30"/>
     <mergeCell ref="H33:L33"/>
     <mergeCell ref="H32:L32"/>
@@ -9471,13 +9478,6 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10532,10 +10532,10 @@
       <c r="A12" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="106"/>
+      <c r="C12" s="96"/>
       <c r="D12" t="s">
         <v>90</v>
       </c>
@@ -10555,10 +10555,10 @@
       <c r="A13" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="106"/>
+      <c r="C13" s="96"/>
       <c r="D13" t="s">
         <v>95</v>
       </c>
@@ -10581,10 +10581,10 @@
       <c r="A14" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="106"/>
+      <c r="C14" s="96"/>
       <c r="D14" t="s">
         <v>96</v>
       </c>
@@ -10607,10 +10607,10 @@
       <c r="A15" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="106"/>
+      <c r="C15" s="96"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
     </row>
@@ -10618,30 +10618,30 @@
       <c r="A16" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="106"/>
+      <c r="C16" s="96"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="21.6" customHeight="1">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="101" t="s">
+      <c r="B17" s="106"/>
+      <c r="C17" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="101" t="s">
+      <c r="D17" s="103"/>
+      <c r="E17" s="102" t="s">
         <v>288</v>
       </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="101" t="s">
+      <c r="F17" s="104"/>
+      <c r="G17" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="103"/>
+      <c r="H17" s="104"/>
       <c r="I17" s="55" t="s">
         <v>151</v>
       </c>
@@ -10672,10 +10672,10 @@
       <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="98"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="44">
         <v>4</v>
       </c>
@@ -10697,10 +10697,10 @@
       <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="98"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="44">
         <v>1</v>
       </c>
@@ -10721,10 +10721,10 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="98"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="44">
         <v>6</v>
       </c>
@@ -10742,10 +10742,10 @@
       <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="98"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="44">
         <v>4</v>
       </c>
@@ -10763,10 +10763,10 @@
       <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="100" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="100"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="53">
         <f>SUM(C18:C22)</f>
         <v>18</v>
@@ -10798,10 +10798,10 @@
       <c r="E26" t="s">
         <v>316</v>
       </c>
-      <c r="F26" s="96" t="s">
+      <c r="F26" s="97" t="s">
         <v>317</v>
       </c>
-      <c r="G26" s="96"/>
+      <c r="G26" s="97"/>
       <c r="H26" t="s">
         <v>318</v>
       </c>
@@ -10867,11 +10867,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
@@ -10883,6 +10878,11 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11536,11 +11536,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
     </row>
     <row r="5" spans="2:11">
       <c r="D5" t="s">
@@ -11792,18 +11792,18 @@
       <c r="D43" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="E43" s="110" t="s">
+      <c r="E43" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110" t="s">
+      <c r="F43" s="114"/>
+      <c r="G43" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110" t="s">
+      <c r="H43" s="114"/>
+      <c r="I43" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="J43" s="110"/>
+      <c r="J43" s="114"/>
       <c r="K43" s="40" t="s">
         <v>231</v>
       </c>
@@ -11820,26 +11820,26 @@
         <v>250</v>
       </c>
       <c r="P43" s="95"/>
-      <c r="Q43" s="111" t="s">
+      <c r="Q43" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="R43" s="112"/>
+      <c r="R43" s="117"/>
       <c r="S43" s="94" t="s">
         <v>248</v>
       </c>
       <c r="T43" s="95"/>
-      <c r="U43" s="110" t="s">
+      <c r="U43" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="V43" s="110"/>
-      <c r="W43" s="110" t="s">
+      <c r="V43" s="114"/>
+      <c r="W43" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="X43" s="110"/>
-      <c r="Y43" s="110" t="s">
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114" t="s">
         <v>247</v>
       </c>
-      <c r="Z43" s="110"/>
+      <c r="Z43" s="114"/>
     </row>
     <row r="44" spans="3:26">
       <c r="D44" s="28">
@@ -11865,26 +11865,26 @@
       </c>
       <c r="M44" s="33"/>
       <c r="N44" s="33"/>
-      <c r="O44" s="107">
+      <c r="O44" s="113">
         <v>200</v>
       </c>
-      <c r="P44" s="107"/>
+      <c r="P44" s="113"/>
       <c r="Q44" s="33"/>
       <c r="R44" s="33"/>
-      <c r="S44" s="107"/>
-      <c r="T44" s="107"/>
-      <c r="U44" s="107">
+      <c r="S44" s="113"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="113">
         <v>0</v>
       </c>
-      <c r="V44" s="107"/>
-      <c r="W44" s="107">
+      <c r="V44" s="113"/>
+      <c r="W44" s="113">
         <v>0</v>
       </c>
-      <c r="X44" s="107"/>
-      <c r="Y44" s="107">
+      <c r="X44" s="113"/>
+      <c r="Y44" s="113">
         <v>200</v>
       </c>
-      <c r="Z44" s="108"/>
+      <c r="Z44" s="115"/>
     </row>
     <row r="45" spans="3:26">
       <c r="D45" s="28">
@@ -11910,24 +11910,24 @@
       </c>
       <c r="M45" s="33"/>
       <c r="N45" s="33"/>
-      <c r="O45" s="109">
+      <c r="O45" s="112">
         <v>2600</v>
       </c>
-      <c r="P45" s="109"/>
-      <c r="Q45" s="115">
+      <c r="P45" s="112"/>
+      <c r="Q45" s="109">
         <v>789</v>
       </c>
-      <c r="R45" s="115"/>
-      <c r="S45" s="116">
+      <c r="R45" s="109"/>
+      <c r="S45" s="110">
         <v>43248</v>
       </c>
-      <c r="T45" s="117"/>
-      <c r="U45" s="117"/>
-      <c r="V45" s="117"/>
-      <c r="W45" s="109">
+      <c r="T45" s="111"/>
+      <c r="U45" s="111"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="112">
         <v>78</v>
       </c>
-      <c r="X45" s="109"/>
+      <c r="X45" s="112"/>
       <c r="Y45" s="33"/>
       <c r="Z45" s="43">
         <v>2522</v>
@@ -12073,49 +12073,58 @@
       <c r="T52" t="s">
         <v>198</v>
       </c>
-      <c r="Y52" s="113">
+      <c r="Y52" s="107">
         <v>2800</v>
       </c>
-      <c r="Z52" s="113"/>
+      <c r="Z52" s="107"/>
     </row>
     <row r="53" spans="4:26">
       <c r="T53" t="s">
         <v>195</v>
       </c>
-      <c r="Y53" s="113">
+      <c r="Y53" s="107">
         <v>0</v>
       </c>
-      <c r="Z53" s="113"/>
+      <c r="Z53" s="107"/>
     </row>
     <row r="54" spans="4:26">
       <c r="T54" t="s">
         <v>194</v>
       </c>
-      <c r="Y54" s="113">
+      <c r="Y54" s="107">
         <v>0</v>
       </c>
-      <c r="Z54" s="113"/>
+      <c r="Z54" s="107"/>
     </row>
     <row r="55" spans="4:26">
       <c r="T55" t="s">
         <v>193</v>
       </c>
-      <c r="Y55" s="113">
+      <c r="Y55" s="107">
         <v>200</v>
       </c>
-      <c r="Z55" s="113"/>
+      <c r="Z55" s="107"/>
     </row>
     <row r="56" spans="4:26">
       <c r="T56" t="s">
         <v>192</v>
       </c>
-      <c r="Y56" s="113">
+      <c r="Y56" s="107">
         <v>2522</v>
       </c>
-      <c r="Z56" s="113"/>
+      <c r="Z56" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Y43:Z43"/>
     <mergeCell ref="Y56:Z56"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="O43:P43"/>
@@ -12132,15 +12141,6 @@
     <mergeCell ref="U43:V43"/>
     <mergeCell ref="W43:X43"/>
     <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Y43:Z43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12363,46 +12363,46 @@
       <c r="D35" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="E35" s="110" t="s">
+      <c r="E35" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110" t="s">
+      <c r="F35" s="114"/>
+      <c r="G35" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110" t="s">
+      <c r="H35" s="114"/>
+      <c r="I35" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110" t="s">
+      <c r="J35" s="114"/>
+      <c r="K35" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110" t="s">
+      <c r="L35" s="114"/>
+      <c r="M35" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="N35" s="110"/>
+      <c r="N35" s="114"/>
       <c r="O35" s="94" t="s">
         <v>112</v>
       </c>
       <c r="P35" s="95"/>
-      <c r="Q35" s="110" t="s">
+      <c r="Q35" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="R35" s="110"/>
-      <c r="S35" s="110" t="s">
+      <c r="R35" s="114"/>
+      <c r="S35" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="T35" s="110"/>
-      <c r="U35" s="110" t="s">
+      <c r="T35" s="114"/>
+      <c r="U35" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="V35" s="110"/>
-      <c r="W35" s="110" t="s">
+      <c r="V35" s="114"/>
+      <c r="W35" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="X35" s="110"/>
+      <c r="X35" s="114"/>
     </row>
     <row r="36" spans="3:24">
       <c r="D36" s="28">
@@ -12424,30 +12424,30 @@
         <v>199</v>
       </c>
       <c r="L36" s="33"/>
-      <c r="M36" s="107">
+      <c r="M36" s="113">
         <v>2600</v>
       </c>
-      <c r="N36" s="107"/>
-      <c r="O36" s="107">
+      <c r="N36" s="113"/>
+      <c r="O36" s="113">
         <v>7800</v>
       </c>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="107">
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113">
         <v>78</v>
       </c>
-      <c r="R36" s="107"/>
-      <c r="S36" s="107">
+      <c r="R36" s="113"/>
+      <c r="S36" s="113">
         <v>234</v>
       </c>
-      <c r="T36" s="107"/>
-      <c r="U36" s="107">
+      <c r="T36" s="113"/>
+      <c r="U36" s="113">
         <v>546</v>
       </c>
-      <c r="V36" s="107"/>
-      <c r="W36" s="107">
+      <c r="V36" s="113"/>
+      <c r="W36" s="113">
         <v>8034</v>
       </c>
-      <c r="X36" s="108"/>
+      <c r="X36" s="115"/>
     </row>
     <row r="37" spans="3:24">
       <c r="D37" s="28">
@@ -12597,64 +12597,64 @@
       <c r="N44" t="s">
         <v>198</v>
       </c>
-      <c r="W44" s="113">
+      <c r="W44" s="107">
         <v>7800</v>
       </c>
-      <c r="X44" s="113"/>
+      <c r="X44" s="107"/>
     </row>
     <row r="45" spans="3:24">
       <c r="N45" t="s">
         <v>197</v>
       </c>
-      <c r="W45" s="113">
+      <c r="W45" s="107">
         <v>78</v>
       </c>
-      <c r="X45" s="113"/>
+      <c r="X45" s="107"/>
     </row>
     <row r="46" spans="3:24">
       <c r="N46" t="s">
         <v>196</v>
       </c>
-      <c r="W46" s="113">
+      <c r="W46" s="107">
         <v>8346</v>
       </c>
-      <c r="X46" s="113"/>
+      <c r="X46" s="107"/>
     </row>
     <row r="47" spans="3:24">
       <c r="N47" t="s">
         <v>195</v>
       </c>
-      <c r="W47" s="113">
+      <c r="W47" s="107">
         <v>78</v>
       </c>
-      <c r="X47" s="113"/>
+      <c r="X47" s="107"/>
     </row>
     <row r="48" spans="3:24">
       <c r="N48" t="s">
         <v>194</v>
       </c>
-      <c r="W48" s="113">
+      <c r="W48" s="107">
         <v>234</v>
       </c>
-      <c r="X48" s="113"/>
+      <c r="X48" s="107"/>
     </row>
     <row r="49" spans="4:24">
       <c r="N49" t="s">
         <v>193</v>
       </c>
-      <c r="W49" s="113">
+      <c r="W49" s="107">
         <v>312</v>
       </c>
-      <c r="X49" s="113"/>
+      <c r="X49" s="107"/>
     </row>
     <row r="50" spans="4:24">
       <c r="N50" t="s">
         <v>192</v>
       </c>
-      <c r="W50" s="113">
+      <c r="W50" s="107">
         <v>8034</v>
       </c>
-      <c r="X50" s="113"/>
+      <c r="X50" s="107"/>
     </row>
     <row r="54" spans="4:24">
       <c r="D54" s="26" t="s">
@@ -12854,13 +12854,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
     <mergeCell ref="Q35:R35"/>
     <mergeCell ref="S35:T35"/>
     <mergeCell ref="U35:V35"/>
@@ -12872,11 +12870,13 @@
     <mergeCell ref="S36:T36"/>
     <mergeCell ref="U36:V36"/>
     <mergeCell ref="W36:X36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="W48:X48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
